--- a/Unread_profiles.xlsx
+++ b/Unread_profiles.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -626,6 +626,57 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Md Nazmul</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/61563860457028/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Muhammad Umar Khan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>How are you Dear</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100007972953392/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Maham Khan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hi, how are you?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/61552723924619/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/Unread_profiles.xlsx
+++ b/Unread_profiles.xlsx
@@ -1,46 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahnoor-zubair\Desktop\main - Copy\main - Copy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B2C57-D618-49BC-B8F4-1A3C11468156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+  <si>
+    <t>Unread_Profile_Names</t>
+  </si>
+  <si>
+    <t>Unread_Profile_Messages</t>
+  </si>
+  <si>
+    <t>Urls</t>
+  </si>
+  <si>
+    <t>Mahnoor Zubair</t>
+  </si>
+  <si>
+    <t>Hellos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100019001116828/</t>
+  </si>
+  <si>
+    <t>Jahangir Ali Ali</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100039960151589/</t>
+  </si>
+  <si>
+    <t>Christopher Macaganda</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100072405690504/</t>
+  </si>
+  <si>
+    <t>Bang Chan</t>
+  </si>
+  <si>
+    <t>Hi pretty</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61573771665658/</t>
+  </si>
+  <si>
+    <t>Hicham Ben</t>
+  </si>
+  <si>
+    <t>Bonjour</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100014983891449/</t>
+  </si>
+  <si>
+    <t>Muhammad Nawab Khan</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100005610495323/</t>
+  </si>
+  <si>
+    <t>يارب اغفر لي</t>
+  </si>
+  <si>
+    <t>اغفر لي sent a video.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61574118200273/</t>
+  </si>
+  <si>
+    <t>Ali Raza</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61559627090862/</t>
+  </si>
+  <si>
+    <t>Muhammad Asif</t>
+  </si>
+  <si>
+    <t>Where are you from??</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100002449854709/</t>
+  </si>
+  <si>
+    <t>Md Nazmul</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61563860457028/</t>
+  </si>
+  <si>
+    <t>Muhammad Umar Khan</t>
+  </si>
+  <si>
+    <t>How are you Dear</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100007972953392/</t>
+  </si>
+  <si>
+    <t>Maham Khan</t>
+  </si>
+  <si>
+    <t>Hi, how are you?</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61552723924619/</t>
+  </si>
+  <si>
+    <t>Fuzail Hussain Talpur</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100010260367140/</t>
+  </si>
+  <si>
+    <t>Active now</t>
+  </si>
+  <si>
+    <t>Crayz Crayz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100089631017395/</t>
+  </si>
+  <si>
+    <t>Saqib Ali</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100019901630085/</t>
+  </si>
+  <si>
+    <t>David Harry</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61573652937094/</t>
+  </si>
+  <si>
+    <t>James Jack</t>
+  </si>
+  <si>
+    <t>How are you</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/61572968113337/</t>
+  </si>
+  <si>
+    <t>Hello Emelia</t>
+  </si>
+  <si>
+    <t>Azaan Kaul</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1274278439/</t>
+  </si>
+  <si>
+    <t>I was</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="FF080809"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,85 +248,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,242 +556,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="22.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unread_Profile_Names</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unread_Profile_Messages</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Urls</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mahnoor Zubair</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hellos</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100019001116828/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jahangir Ali Ali</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hey</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100039960151589/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Christopher Macaganda</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hello</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100072405690504/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bang Chan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hi pretty</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/61573771665658/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hicham Ben</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bonjour</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100014983891449/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Muhammad Nawab Khan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hey</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100005610495323/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>يارب اغفر لي</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>اغفر لي sent a video.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/61574118200273/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ali Raza</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/61559627090862/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Muhammad Asif</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Where are you from??</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100002449854709/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Md Nazmul</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/61563860457028/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Muhammad Umar Khan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>How are you Dear</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100007972953392/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Maham Khan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Hi, how are you?</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/61552723924619/</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Unread_profiles.xlsx
+++ b/Unread_profiles.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -990,6 +990,23 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Abdulnaser Ahad Abdulkarim</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>You can now message and call each other and see info like Active Status and when you've read messages.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100016984415475/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
